--- a/StreamRes/ExcelTable/Excel/RuntimeData.xlsx
+++ b/StreamRes/ExcelTable/Excel/RuntimeData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18400"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,21 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>int_key</t>
-  </si>
-  <si>
-    <t>int_value</t>
-  </si>
-  <si>
-    <t>float_key</t>
-  </si>
-  <si>
-    <t>float_value</t>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
   <si>
     <t>int</t>
@@ -39,49 +36,28 @@
     <t>string</t>
   </si>
   <si>
+    <t>键</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Cube0_Transform_Position.x</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>Int类型的键</t>
-  </si>
-  <si>
-    <t>Int类型的值</t>
-  </si>
-  <si>
-    <t>Flaot类型的键</t>
-  </si>
-  <si>
-    <t>Float类型的值</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Cube0_Transform_Position.x</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>cube0_Transform_Position.y</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>Cube0.Light.Inset</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1042,21 +1018,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="29.7818181818182" customWidth="1"/>
+    <col min="2" max="2" width="29.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="30.1090909090909" customWidth="1"/>
-    <col min="5" max="5" width="14.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="30.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,76 +1044,61 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +1117,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1174,7 +1134,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/StreamRes/ExcelTable/Excel/RuntimeData.xlsx
+++ b/StreamRes/ExcelTable/Excel/RuntimeData.xlsx
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>

--- a/StreamRes/ExcelTable/Excel/RuntimeData.xlsx
+++ b/StreamRes/ExcelTable/Excel/RuntimeData.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>2</t>
@@ -75,7 +78,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -83,7 +85,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,14 +92,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,7 +105,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,7 +112,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,7 +119,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,7 +126,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,14 +133,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,7 +146,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,7 +153,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,14 +160,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,35 +173,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -666,8 +650,155 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="50">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,80 +1156,75 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="29.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="30.1111111111111" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" s="49" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1237,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1128,7 +1253,6 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/StreamRes/ExcelTable/Excel/RuntimeData.xlsx
+++ b/StreamRes/ExcelTable/Excel/RuntimeData.xlsx
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Key</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Cube0_Transform_Position.x</t>
@@ -1149,7 +1155,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1170,19 +1176,25 @@
       <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="49" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1190,41 +1202,50 @@
         <v>0</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="49" t="s">
         <v>8</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="E5" s="49" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
